--- a/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/CNN/GRU_tanh_mse.xlsx
+++ b/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/CNN/GRU_tanh_mse.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6618441343307495</v>
+        <v>-7.600832462310791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6220035552978516</v>
+        <v>-0.07741087675094604</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002763327211141586</v>
+        <v>0.1323052644729614</v>
       </c>
       <c r="E2" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.1347362697124481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2343637496232986</v>
+        <v>2026000128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2144970148801804</v>
+        <v>1403856.875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.48397096991539</v>
+        <v>93.44071960449219</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4630774855613708</v>
+        <v>73.64617156982422</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4839900732040405</v>
+        <v>189.2681427001953</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2144970148801804</v>
+        <v>1403856.875</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5715299248695374</v>
+        <v>-11.6973819732666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5175724029541016</v>
+        <v>-3.408147096633911</v>
       </c>
       <c r="D3" t="n">
-        <v>1.849410182330757e-05</v>
+        <v>0.1344259232282639</v>
       </c>
       <c r="E3" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.1352494806051254</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1896174252033234</v>
+        <v>2026000128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1633011549711227</v>
+        <v>1403855.375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4349843561649323</v>
+        <v>93.42996978759766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4038818180561066</v>
+        <v>73.63737487792969</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4351156949996948</v>
+        <v>189.2608642578125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1633011549711227</v>
+        <v>1403855.375</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4597020149230957</v>
+        <v>-14.04055118560791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4012702107429504</v>
+        <v>-6.316310882568359</v>
       </c>
       <c r="D4" t="n">
-        <v>1.849410182330757e-05</v>
+        <v>0.1348875015974045</v>
       </c>
       <c r="E4" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.1353558152914047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1361095458269119</v>
+        <v>2026000128</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1094089969992638</v>
+        <v>1403854.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3679831624031067</v>
+        <v>93.42192077636719</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3303121626377106</v>
+        <v>73.63045501708984</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3683195114135742</v>
+        <v>189.2560729980469</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1094089969992638</v>
+        <v>1403854.125</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3444729447364807</v>
+        <v>-16.81074523925781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2896104156970978</v>
+        <v>-9.178060531616211</v>
       </c>
       <c r="D5" t="n">
-        <v>1.772351424733642e-05</v>
+        <v>0.1332415342330933</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.1324938535690308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08542768657207489</v>
+        <v>2026000128</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06345859915018082</v>
+        <v>1403853.375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2908073663711548</v>
+        <v>93.41576385498047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2512181401252747</v>
+        <v>73.62490844726562</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2913883924484253</v>
+        <v>189.2521667480469</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06345859915018082</v>
+        <v>1403853.375</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2404990196228027</v>
+        <v>-19.56289291381836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1948697566986084</v>
+        <v>-12.02262306213379</v>
       </c>
       <c r="D6" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.1306777894496918</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.1276969611644745</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04627156257629395</v>
+        <v>2026000128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03157795965671539</v>
+        <v>1403851.875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2132679969072342</v>
+        <v>93.41071319580078</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1768854856491089</v>
+        <v>73.6201171875</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2140343338251114</v>
+        <v>189.2490081787109</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03157795965671539</v>
+        <v>1403851.875</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1568989604711533</v>
+        <v>-22.30613327026367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1228084042668343</v>
+        <v>-14.87165546417236</v>
       </c>
       <c r="D7" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.1266229599714279</v>
       </c>
       <c r="E7" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.1251124143600464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02154500223696232</v>
+        <v>2026000128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01351455040276051</v>
+        <v>1403851.125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.144889235496521</v>
+        <v>93.40626525878906</v>
       </c>
       <c r="I7" t="n">
-        <v>0.115464985370636</v>
+        <v>73.61589050292969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1457024812698364</v>
+        <v>189.2458953857422</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01351455040276051</v>
+        <v>1403851.125</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09619146585464478</v>
+        <v>-25.04899024963379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07298677414655685</v>
+        <v>-17.69978141784668</v>
       </c>
       <c r="D8" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.1245839819312096</v>
       </c>
       <c r="E8" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.124268613755703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008684145286679268</v>
+        <v>2026000128</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005038567818701267</v>
+        <v>1403850.625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0915444940328598</v>
+        <v>93.40215301513672</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07033827155828476</v>
+        <v>73.61190795898438</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09226522594690323</v>
+        <v>189.2430114746094</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005038567818701267</v>
+        <v>1403850.625</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05582185462117195</v>
+        <v>-27.78689956665039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0412207692861557</v>
+        <v>-20.54460906982422</v>
       </c>
       <c r="D9" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.1238996982574463</v>
       </c>
       <c r="E9" t="n">
-        <v>1.15587963591679e-05</v>
+        <v>0.1235103607177734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003076360793784261</v>
+        <v>2026000128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00166707206517458</v>
+        <v>1403850.125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0542217530310154</v>
+        <v>93.39838409423828</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04036292806267738</v>
+        <v>73.60838317871094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05477455258369446</v>
+        <v>189.2402648925781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00166707206517458</v>
+        <v>1403850.125</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03089256398379803</v>
+        <v>-31.2348461151123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02228398434817791</v>
+        <v>-23.3800163269043</v>
       </c>
       <c r="D10" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.2063541114330292</v>
       </c>
       <c r="E10" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.2883873283863068</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009759545791894197</v>
+        <v>2026000128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004991913447156549</v>
+        <v>1403849.75</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03039523214101791</v>
+        <v>93.39513397216797</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0220304112881422</v>
+        <v>73.60518646240234</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03077464923262596</v>
+        <v>189.2376556396484</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004991913447156549</v>
+        <v>1403849.75</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01641461066901684</v>
+        <v>-33.99860763549805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01160459779202938</v>
+        <v>-26.27795600891113</v>
       </c>
       <c r="D11" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.2936586141586304</v>
       </c>
       <c r="E11" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.2999183833599091</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002825651317834854</v>
+        <v>2026000128</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001378611632389948</v>
+        <v>1403849.125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0162738673388958</v>
+        <v>93.39192199707031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01153542194515467</v>
+        <v>73.60209655761719</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0165143609046936</v>
+        <v>189.2352600097656</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001378611632389948</v>
+        <v>1403849.125</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.008422843180596828</v>
+        <v>-36.8751220703125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005852770525962114</v>
+        <v>-29.14725875854492</v>
       </c>
       <c r="D12" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3004166483879089</v>
       </c>
       <c r="E12" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.2999553978443146</v>
       </c>
       <c r="F12" t="n">
-        <v>7.611078035552055e-05</v>
+        <v>2026000128</v>
       </c>
       <c r="G12" t="n">
-        <v>3.58692450390663e-05</v>
+        <v>1403849</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008387571200728416</v>
+        <v>93.38887023925781</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005835848394781351</v>
+        <v>73.59934234619141</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008533531799912453</v>
+        <v>189.2330169677734</v>
       </c>
       <c r="K12" t="n">
-        <v>3.58692450390663e-05</v>
+        <v>1403849</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004194220062345266</v>
+        <v>-39.69185638427734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002872029086574912</v>
+        <v>-31.99886322021484</v>
       </c>
       <c r="D13" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.300445169210434</v>
       </c>
       <c r="E13" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.2999992966651917</v>
       </c>
       <c r="F13" t="n">
-        <v>1.961139969353098e-05</v>
+        <v>2026000128</v>
       </c>
       <c r="G13" t="n">
-        <v>9.137251254287548e-06</v>
+        <v>1403848.75</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004189289174973965</v>
+        <v>93.38603973388672</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002872419077903032</v>
+        <v>73.59630584716797</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004279704298824072</v>
+        <v>189.2310333251953</v>
       </c>
       <c r="K13" t="n">
-        <v>9.137251254287548e-06</v>
+        <v>1403848.75</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002035258105024695</v>
+        <v>-42.42948913574219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001376798609271646</v>
+        <v>-34.91381454467773</v>
       </c>
       <c r="D14" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3004998862743378</v>
       </c>
       <c r="E14" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3000154793262482</v>
       </c>
       <c r="F14" t="n">
-        <v>5.189260718907462e-06</v>
+        <v>2026000128</v>
       </c>
       <c r="G14" t="n">
-        <v>2.501959215805982e-06</v>
+        <v>1403848.375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002047325018793344</v>
+        <v>93.38340759277344</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001397079788148403</v>
+        <v>73.59369659423828</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002107341540977359</v>
+        <v>189.2290344238281</v>
       </c>
       <c r="K14" t="n">
-        <v>2.501959215805982e-06</v>
+        <v>1403848.375</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0009659577044658363</v>
+        <v>-45.25522994995117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006473591784015298</v>
+        <v>-37.80116653442383</v>
       </c>
       <c r="D15" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3005476593971252</v>
       </c>
       <c r="E15" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3000802099704742</v>
       </c>
       <c r="F15" t="n">
-        <v>1.715680468805658e-06</v>
+        <v>2026000128</v>
       </c>
       <c r="G15" t="n">
-        <v>8.741271813050844e-07</v>
+        <v>1403848.125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001002369914203882</v>
+        <v>93.38077545166016</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006951653049327433</v>
+        <v>73.59133911132812</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001047861180268228</v>
+        <v>189.2273712158203</v>
       </c>
       <c r="K15" t="n">
-        <v>8.741271813050844e-07</v>
+        <v>1403848.125</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0004500792128965259</v>
+        <v>-48.03043365478516</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003002355224452913</v>
+        <v>-40.65324020385742</v>
       </c>
       <c r="D16" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3006023764610291</v>
       </c>
       <c r="E16" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.30013108253479</v>
       </c>
       <c r="F16" t="n">
-        <v>9.189801630782313e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G16" t="n">
-        <v>4.378905771318387e-07</v>
+        <v>1403847.375</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0005138092674314976</v>
+        <v>93.37831878662109</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003744426066987216</v>
+        <v>73.58901214599609</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005631394451484084</v>
+        <v>189.2258911132812</v>
       </c>
       <c r="K16" t="n">
-        <v>4.378905771318387e-07</v>
+        <v>1403847.375</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0002071115886792541</v>
+        <v>-50.78570175170898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001390435063512996</v>
+        <v>-43.49900054931641</v>
       </c>
       <c r="D17" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3006709516048431</v>
       </c>
       <c r="E17" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3001888692378998</v>
       </c>
       <c r="F17" t="n">
-        <v>7.436618147949048e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G17" t="n">
-        <v>2.978758004701376e-07</v>
+        <v>1403847</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002951757051050663</v>
+        <v>93.37608337402344</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002350073191337287</v>
+        <v>73.58660888671875</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003611980355344713</v>
+        <v>189.2245025634766</v>
       </c>
       <c r="K17" t="n">
-        <v>2.978758004701376e-07</v>
+        <v>1403847</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.554408461553976e-05</v>
+        <v>-53.54079055786133</v>
       </c>
       <c r="C18" t="n">
-        <v>6.6328291723039e-05</v>
+        <v>-46.34516525268555</v>
       </c>
       <c r="D18" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3007349073886871</v>
       </c>
       <c r="E18" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3002235591411591</v>
       </c>
       <c r="F18" t="n">
-        <v>7.063545126584359e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G18" t="n">
-        <v>2.482741763287777e-07</v>
+        <v>1403846.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002022148255491629</v>
+        <v>93.37393188476562</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001775766286300495</v>
+        <v>73.58451080322266</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002868734300136566</v>
+        <v>189.2234497070312</v>
       </c>
       <c r="K18" t="n">
-        <v>2.482741763287777e-07</v>
+        <v>1403846.5</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.588529191096313e-05</v>
+        <v>-56.29473495483398</v>
       </c>
       <c r="C19" t="n">
-        <v>3.446094706305303e-05</v>
+        <v>-49.18695831298828</v>
       </c>
       <c r="D19" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.300761878490448</v>
       </c>
       <c r="E19" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3002605438232422</v>
       </c>
       <c r="F19" t="n">
-        <v>6.985586651353515e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G19" t="n">
-        <v>2.314552176585494e-07</v>
+        <v>1403846.125</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001649411569815129</v>
+        <v>93.37176513671875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001551520690554753</v>
+        <v>73.58259582519531</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000262562622083351</v>
+        <v>189.2224884033203</v>
       </c>
       <c r="K19" t="n">
-        <v>2.314552176585494e-07</v>
+        <v>1403846.125</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.426216633466538e-05</v>
+        <v>-59.04773712158203</v>
       </c>
       <c r="C20" t="n">
-        <v>2.042071719188243e-05</v>
+        <v>-52.03452301025391</v>
       </c>
       <c r="D20" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3007842302322388</v>
       </c>
       <c r="E20" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3002674579620361</v>
       </c>
       <c r="F20" t="n">
-        <v>6.968739398871548e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G20" t="n">
-        <v>2.261024860672478e-07</v>
+        <v>1403846.25</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001508189016021788</v>
+        <v>93.36976623535156</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001467351248720661</v>
+        <v>73.58051300048828</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002548251068219543</v>
+        <v>189.221435546875</v>
       </c>
       <c r="K20" t="n">
-        <v>2.261024860672478e-07</v>
+        <v>1403846.25</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.453436107112793e-05</v>
+        <v>-61.79930114746094</v>
       </c>
       <c r="C21" t="n">
-        <v>1.379869900119957e-05</v>
+        <v>-54.87903213500977</v>
       </c>
       <c r="D21" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3008004128932953</v>
       </c>
       <c r="E21" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3002882897853851</v>
       </c>
       <c r="F21" t="n">
-        <v>6.964557996980147e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G21" t="n">
-        <v>2.243571515236908e-07</v>
+        <v>1403845.875</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000145568759762682</v>
+        <v>93.36786651611328</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001434812875231728</v>
+        <v>73.57855987548828</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002520765119697899</v>
+        <v>189.2204742431641</v>
       </c>
       <c r="K21" t="n">
-        <v>2.243571515236908e-07</v>
+        <v>1403845.875</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.72585712588625e-06</v>
+        <v>-64.54927825927734</v>
       </c>
       <c r="C22" t="n">
-        <v>1.032622640195768e-05</v>
+        <v>-57.71625137329102</v>
       </c>
       <c r="D22" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3008119761943817</v>
       </c>
       <c r="E22" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3003183305263519</v>
       </c>
       <c r="F22" t="n">
-        <v>6.963267082937818e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G22" t="n">
-        <v>2.237212157751856e-07</v>
+        <v>1403845.375</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001434496516594663</v>
+        <v>93.36604309082031</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001420621847501025</v>
+        <v>73.57692718505859</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002508996403776109</v>
+        <v>189.2197418212891</v>
       </c>
       <c r="K22" t="n">
-        <v>2.237212157751856e-07</v>
+        <v>1403845.375</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.060181360429851e-06</v>
+        <v>-67.29963684082031</v>
       </c>
       <c r="C23" t="n">
-        <v>8.298827196995262e-06</v>
+        <v>-60.55381393432617</v>
       </c>
       <c r="D23" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3008242845535278</v>
       </c>
       <c r="E23" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3003483712673187</v>
       </c>
       <c r="F23" t="n">
-        <v>6.962757197470637e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G23" t="n">
-        <v>2.234538811762832e-07</v>
+        <v>1403845.25</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001424630463588983</v>
+        <v>93.36427307128906</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001413454447174445</v>
+        <v>73.57505035400391</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002502966963220388</v>
+        <v>189.2188568115234</v>
       </c>
       <c r="K23" t="n">
-        <v>2.234538811762832e-07</v>
+        <v>1403845.25</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.422087724582525e-06</v>
+        <v>-70.04789733886719</v>
       </c>
       <c r="C24" t="n">
-        <v>7.003288828855148e-06</v>
+        <v>-63.39993286132812</v>
       </c>
       <c r="D24" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.300850510597229</v>
       </c>
       <c r="E24" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.3003483712673187</v>
       </c>
       <c r="F24" t="n">
-        <v>6.962523002584931e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G24" t="n">
-        <v>2.233252729411106e-07</v>
+        <v>1403845.25</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0001419325271854177</v>
+        <v>93.362548828125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001409333490300924</v>
+        <v>73.57350158691406</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002499425900168717</v>
+        <v>189.2183227539062</v>
       </c>
       <c r="K24" t="n">
-        <v>2.233252729411106e-07</v>
+        <v>1403845.25</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.329891908128047e-06</v>
+        <v>-72.79705810546875</v>
       </c>
       <c r="C25" t="n">
-        <v>6.115270025475184e-06</v>
+        <v>-66.23261260986328</v>
       </c>
       <c r="D25" t="n">
-        <v>1.695292667136528e-05</v>
+        <v>0.3008682131767273</v>
       </c>
       <c r="E25" t="n">
-        <v>9.24703726923326e-06</v>
+        <v>0.300383061170578</v>
       </c>
       <c r="F25" t="n">
-        <v>6.962386578379665e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G25" t="n">
-        <v>2.232565776694173e-07</v>
+        <v>1403844.875</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001416122249793261</v>
+        <v>93.36087036132812</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001406723313266411</v>
+        <v>73.57173919677734</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002497131645213813</v>
+        <v>189.2177429199219</v>
       </c>
       <c r="K25" t="n">
-        <v>2.232565776694173e-07</v>
+        <v>1403844.875</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.554867589627975e-06</v>
+        <v>-75.54515075683594</v>
       </c>
       <c r="C26" t="n">
-        <v>5.472948942042422e-06</v>
+        <v>-69.08454132080078</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2001994252204895</v>
+        <v>0.3008959591388702</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3004108071327209</v>
       </c>
       <c r="F26" t="n">
-        <v>6.962313818803523e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G26" t="n">
-        <v>2.232166309568129e-07</v>
+        <v>1403844.75</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001414013531757519</v>
+        <v>93.35939788818359</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001404945796821266</v>
+        <v>73.57033538818359</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002495536755304784</v>
+        <v>189.2171173095703</v>
       </c>
       <c r="K26" t="n">
-        <v>2.232166309568129e-07</v>
+        <v>1403844.75</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.978158363475814e-06</v>
+        <v>-78.29628753662109</v>
       </c>
       <c r="C27" t="n">
-        <v>4.988720320397988e-06</v>
+        <v>-71.91488647460938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3238540887832642</v>
+        <v>0.3077742159366608</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3116829395294189</v>
       </c>
       <c r="F27" t="n">
-        <v>6.962263796594925e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G27" t="n">
-        <v>2.23191278792001e-07</v>
+        <v>1403844.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0001412540295859799</v>
+        <v>93.35781860351562</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001403667993145064</v>
+        <v>73.56887817382812</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0002494367363397032</v>
+        <v>189.2166290283203</v>
       </c>
       <c r="K27" t="n">
-        <v>2.23191278792001e-07</v>
+        <v>1403844.5</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.532884764150367e-06</v>
+        <v>-81.04595184326172</v>
       </c>
       <c r="C28" t="n">
-        <v>4.611566509993281e-06</v>
+        <v>-74.76840209960938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3122290074825287</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.311840146780014</v>
       </c>
       <c r="F28" t="n">
-        <v>6.962230827411986e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G28" t="n">
-        <v>2.231750642067709e-07</v>
+        <v>1403844.375</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0001411446428392082</v>
+        <v>93.35636901855469</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001402709312969819</v>
+        <v>73.56743621826172</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002493467181921005</v>
+        <v>189.2161560058594</v>
       </c>
       <c r="K28" t="n">
-        <v>2.231750642067709e-07</v>
+        <v>1403844.375</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.178891691073659e-06</v>
+        <v>-83.79607391357422</v>
       </c>
       <c r="C29" t="n">
-        <v>4.310058102419134e-06</v>
+        <v>-77.60704803466797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3123245537281036</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3118632435798645</v>
       </c>
       <c r="F29" t="n">
-        <v>6.962209226912819e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G29" t="n">
-        <v>2.231639797400931e-07</v>
+        <v>1403844.375</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0001410622644471005</v>
+        <v>93.35492706298828</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0001401963527314365</v>
+        <v>73.56613922119141</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0002492765197530389</v>
+        <v>189.2157745361328</v>
       </c>
       <c r="K29" t="n">
-        <v>2.231639797400931e-07</v>
+        <v>1403844.375</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.890779230961925e-06</v>
+        <v>-86.54222869873047</v>
       </c>
       <c r="C30" t="n">
-        <v>4.063828782818746e-06</v>
+        <v>-80.44313812255859</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.312343031167984</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3118701875209808</v>
       </c>
       <c r="F30" t="n">
-        <v>6.962185352676897e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G30" t="n">
-        <v>2.231559221854695e-07</v>
+        <v>1403844</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001409967662766576</v>
+        <v>93.35367584228516</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0001401369518134743</v>
+        <v>73.56484222412109</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0002492194180376828</v>
+        <v>189.2152557373047</v>
       </c>
       <c r="K30" t="n">
-        <v>2.231559221854695e-07</v>
+        <v>1403844</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.651689899517805e-06</v>
+        <v>-89.29051971435547</v>
       </c>
       <c r="C31" t="n">
-        <v>3.85916337108938e-06</v>
+        <v>-83.28170776367188</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3123445808887482</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3118701875209808</v>
       </c>
       <c r="F31" t="n">
-        <v>6.962171710256371e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G31" t="n">
-        <v>2.231499820481986e-07</v>
+        <v>1403844</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001409441174473614</v>
+        <v>93.35240173339844</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001400886394549161</v>
+        <v>73.56356048583984</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0002491728810127825</v>
+        <v>189.2149658203125</v>
       </c>
       <c r="K31" t="n">
-        <v>2.231499820481986e-07</v>
+        <v>1403844</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.45002934459626e-06</v>
+        <v>-92.03762817382812</v>
       </c>
       <c r="C32" t="n">
-        <v>3.68648579751607e-06</v>
+        <v>-86.12252044677734</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3123461306095123</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3118748068809509</v>
       </c>
       <c r="F32" t="n">
-        <v>6.962162615309353e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G32" t="n">
-        <v>2.231456051049463e-07</v>
+        <v>1403843.75</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0001409002870786935</v>
+        <v>93.35130310058594</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001400485052727163</v>
+        <v>73.56235504150391</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0002491333580110222</v>
+        <v>189.2146759033203</v>
       </c>
       <c r="K32" t="n">
-        <v>2.231456051049463e-07</v>
+        <v>1403843.75</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.27760824852885e-06</v>
+        <v>-94.78411865234375</v>
       </c>
       <c r="C33" t="n">
-        <v>3.538987357387668e-06</v>
+        <v>-88.96105194091797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.312591165304184</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128295838832855</v>
       </c>
       <c r="F33" t="n">
-        <v>6.962156362533278e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G33" t="n">
-        <v>2.231422229215241e-07</v>
+        <v>1403843.625</v>
       </c>
       <c r="H33" t="n">
-        <v>0.000140864314744249</v>
+        <v>93.35002136230469</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001400145411025733</v>
+        <v>73.56114196777344</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0002490996266715229</v>
+        <v>189.21435546875</v>
       </c>
       <c r="K33" t="n">
-        <v>2.231422229215241e-07</v>
+        <v>1403843.625</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.128476128542388e-06</v>
+        <v>-97.5306396484375</v>
       </c>
       <c r="C34" t="n">
-        <v>3.411563511690474e-06</v>
+        <v>-91.79880523681641</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132638931274414</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128295838832855</v>
       </c>
       <c r="F34" t="n">
-        <v>6.962154657230712e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G34" t="n">
-        <v>2.231396223351112e-07</v>
+        <v>1403843.625</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0001408329990226775</v>
+        <v>93.34876251220703</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001399855536874384</v>
+        <v>73.55998229980469</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0002490709011908621</v>
+        <v>189.2140808105469</v>
       </c>
       <c r="K34" t="n">
-        <v>2.231396223351112e-07</v>
+        <v>1403843.625</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.981064295061515e-07</v>
+        <v>-100.2727890014648</v>
       </c>
       <c r="C35" t="n">
-        <v>3.300431671959814e-06</v>
+        <v>-94.63591766357422</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132700622081757</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128295838832855</v>
       </c>
       <c r="F35" t="n">
-        <v>6.962150678191392e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G35" t="n">
-        <v>2.231375759720322e-07</v>
+        <v>1403843.625</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0001408069510944188</v>
+        <v>93.34768676757812</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001399607281200588</v>
+        <v>73.55897521972656</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0002490457554813474</v>
+        <v>189.2137603759766</v>
       </c>
       <c r="K35" t="n">
-        <v>2.231375759720322e-07</v>
+        <v>1403843.625</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.831917170937231e-07</v>
+        <v>-103.020751953125</v>
       </c>
       <c r="C36" t="n">
-        <v>3.202737843821524e-06</v>
+        <v>-97.47295379638672</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132739067077637</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128295838832855</v>
       </c>
       <c r="F36" t="n">
-        <v>6.962147836020449e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G36" t="n">
-        <v>2.231360554105777e-07</v>
+        <v>1403843.625</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0001407840609317645</v>
+        <v>93.3466796875</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001399389002472162</v>
+        <v>73.55788421630859</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0002490240440238267</v>
+        <v>189.2135620117188</v>
       </c>
       <c r="K36" t="n">
-        <v>2.231360554105777e-07</v>
+        <v>1403843.625</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.810824627085822e-07</v>
+        <v>-105.7667846679688</v>
       </c>
       <c r="C37" t="n">
-        <v>3.116198740826803e-06</v>
+        <v>-100.3101806640625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132731318473816</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128318786621094</v>
       </c>
       <c r="F37" t="n">
-        <v>6.962146130717883e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G37" t="n">
-        <v>2.231345774816873e-07</v>
+        <v>1403843.375</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0001407636591466144</v>
+        <v>93.34564971923828</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001399196771671996</v>
+        <v>73.55687713623047</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0002490038168616593</v>
+        <v>189.2132568359375</v>
       </c>
       <c r="K37" t="n">
-        <v>2.231345774816873e-07</v>
+        <v>1403843.375</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.89728040015325e-07</v>
+        <v>-108.5065383911133</v>
       </c>
       <c r="C38" t="n">
-        <v>3.039022431039484e-06</v>
+        <v>-103.1382141113281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132816255092621</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128781318664551</v>
       </c>
       <c r="F38" t="n">
-        <v>6.962142151678563e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G38" t="n">
-        <v>2.231334832458742e-07</v>
+        <v>1403843.375</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001407458476023749</v>
+        <v>93.34469604492188</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0001399026659782976</v>
+        <v>73.55600738525391</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0002489864709787071</v>
+        <v>189.2130279541016</v>
       </c>
       <c r="K38" t="n">
-        <v>2.231334832458742e-07</v>
+        <v>1403843.375</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.074438374525926e-07</v>
+        <v>-111.256965637207</v>
       </c>
       <c r="C39" t="n">
-        <v>2.969783054140862e-06</v>
+        <v>-105.9835968017578</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132924139499664</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128781318664551</v>
       </c>
       <c r="F39" t="n">
-        <v>6.962139877941809e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G39" t="n">
-        <v>2.231326021728819e-07</v>
+        <v>1403843.25</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001407302333973348</v>
+        <v>93.34368896484375</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000139887590194121</v>
+        <v>73.55486297607422</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0002489717735443264</v>
+        <v>189.2128295898438</v>
       </c>
       <c r="K39" t="n">
-        <v>2.231326021728819e-07</v>
+        <v>1403843.25</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.329384862307052e-07</v>
+        <v>-114.0029602050781</v>
       </c>
       <c r="C40" t="n">
-        <v>2.907332600443624e-06</v>
+        <v>-108.814323425293</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132916390895844</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F40" t="n">
-        <v>6.962137604205054e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G40" t="n">
-        <v>2.23131948473565e-07</v>
+        <v>1403843.125</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000140715972520411</v>
+        <v>93.34265899658203</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0001398738386342302</v>
+        <v>73.55387878417969</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0002489573089405894</v>
+        <v>189.2126007080078</v>
       </c>
       <c r="K40" t="n">
-        <v>2.23131948473565e-07</v>
+        <v>1403843.125</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.65138668914733e-07</v>
+        <v>-116.7489624023438</v>
       </c>
       <c r="C41" t="n">
-        <v>2.850769988071988e-06</v>
+        <v>-111.6558456420898</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132916390895844</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F41" t="n">
-        <v>6.9621353304683e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G41" t="n">
-        <v>2.231311526657009e-07</v>
+        <v>1403843.125</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001407028175890446</v>
+        <v>93.34175872802734</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001398614986101165</v>
+        <v>73.55304718017578</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0002489441831130534</v>
+        <v>189.21240234375</v>
       </c>
       <c r="K41" t="n">
-        <v>2.231311526657009e-07</v>
+        <v>1403843.125</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.031563491935231e-07</v>
+        <v>-119.4931793212891</v>
       </c>
       <c r="C42" t="n">
-        <v>2.799283265630947e-06</v>
+        <v>-114.4926605224609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132916390895844</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F42" t="n">
-        <v>6.962133056731545e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G42" t="n">
-        <v>2.231304705446746e-07</v>
+        <v>1403843</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001406917144777253</v>
+        <v>93.34076690673828</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0001398504973622039</v>
+        <v>73.55216979980469</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0002489326579961926</v>
+        <v>189.2122802734375</v>
       </c>
       <c r="K42" t="n">
-        <v>2.231304705446746e-07</v>
+        <v>1403843</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.462538131770998e-07</v>
+        <v>-122.239013671875</v>
       </c>
       <c r="C43" t="n">
-        <v>2.75226375379134e-06</v>
+        <v>-117.3227920532227</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132908642292023</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F43" t="n">
-        <v>6.962131919863168e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G43" t="n">
-        <v>2.23130001586469e-07</v>
+        <v>1403843</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001406810624757782</v>
+        <v>93.33995819091797</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001398403546772897</v>
+        <v>73.55131530761719</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0002489219477865845</v>
+        <v>189.2120971679688</v>
       </c>
       <c r="K43" t="n">
-        <v>2.23130001586469e-07</v>
+        <v>1403843</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.938263321539125e-07</v>
+        <v>-124.9821166992188</v>
       </c>
       <c r="C44" t="n">
-        <v>2.709153477553627e-06</v>
+        <v>-120.1635208129883</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132900893688202</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F44" t="n">
-        <v>6.962128509258037e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G44" t="n">
-        <v>2.231297600019388e-07</v>
+        <v>1403842.75</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0001406714582117274</v>
+        <v>93.33916473388672</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001398310123477131</v>
+        <v>73.55049133300781</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0002489124017301947</v>
+        <v>189.2118988037109</v>
       </c>
       <c r="K44" t="n">
-        <v>2.231297600019388e-07</v>
+        <v>1403842.75</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.453521403822378e-07</v>
+        <v>-127.7265701293945</v>
       </c>
       <c r="C45" t="n">
-        <v>2.669509740371723e-06</v>
+        <v>-122.9993133544922</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132900893688202</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F45" t="n">
-        <v>6.962126803955471e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G45" t="n">
-        <v>2.231292768328785e-07</v>
+        <v>1403842.75</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0001406627852702513</v>
+        <v>93.33839416503906</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001398223976138979</v>
+        <v>73.54975891113281</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0002489034668542445</v>
+        <v>189.2117156982422</v>
       </c>
       <c r="K45" t="n">
-        <v>2.231292768328785e-07</v>
+        <v>1403842.75</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.003941972361645e-07</v>
+        <v>-130.4701538085938</v>
       </c>
       <c r="C46" t="n">
-        <v>2.632911900946056e-06</v>
+        <v>-125.8352279663086</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132900893688202</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F46" t="n">
-        <v>6.962127372389659e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G46" t="n">
-        <v>2.231290494592031e-07</v>
+        <v>1403842.75</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001406546653015539</v>
+        <v>93.33765411376953</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001398147287545726</v>
+        <v>73.54899597167969</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0002488952886778861</v>
+        <v>189.2115783691406</v>
       </c>
       <c r="K46" t="n">
-        <v>2.231290494592031e-07</v>
+        <v>1403842.75</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.585703870432553e-07</v>
+        <v>-133.2137908935547</v>
       </c>
       <c r="C47" t="n">
-        <v>2.599040954009979e-06</v>
+        <v>-128.670654296875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.313288539648056</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F47" t="n">
-        <v>6.962126235521282e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G47" t="n">
-        <v>2.231287794529635e-07</v>
+        <v>1403842.625</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001406470546498895</v>
+        <v>93.33690643310547</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0001398072199663147</v>
+        <v>73.54822540283203</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0002488877216819674</v>
+        <v>189.2114410400391</v>
       </c>
       <c r="K47" t="n">
-        <v>2.231287794529635e-07</v>
+        <v>1403842.625</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.195523964270251e-07</v>
+        <v>-135.9592590332031</v>
       </c>
       <c r="C48" t="n">
-        <v>2.567603587522171e-06</v>
+        <v>-131.5033111572266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132877945899963</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F48" t="n">
-        <v>6.962125098652905e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G48" t="n">
-        <v>2.231285236575786e-07</v>
+        <v>1403842.625</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001406401570420712</v>
+        <v>93.33619689941406</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0001398006570525467</v>
+        <v>73.54755401611328</v>
       </c>
       <c r="J48" t="n">
-        <v>0.000248880562139675</v>
+        <v>189.2112426757812</v>
       </c>
       <c r="K48" t="n">
-        <v>2.231285236575786e-07</v>
+        <v>1403842.625</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8.305567433808392e-08</v>
+        <v>-138.7044372558594</v>
       </c>
       <c r="C49" t="n">
-        <v>2.538355829528882e-06</v>
+        <v>-134.3380432128906</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132877945899963</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128758072853088</v>
       </c>
       <c r="F49" t="n">
-        <v>6.962123393350339e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G49" t="n">
-        <v>2.231282962839032e-07</v>
+        <v>1403842.625</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001406338124070317</v>
+        <v>93.33540344238281</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0001397942833136767</v>
+        <v>73.54674530029297</v>
       </c>
       <c r="J49" t="n">
-        <v>0.000248873489908874</v>
+        <v>189.2111206054688</v>
       </c>
       <c r="K49" t="n">
-        <v>2.231282962839032e-07</v>
+        <v>1403842.625</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.883951731926572e-08</v>
+        <v>-141.4479675292969</v>
       </c>
       <c r="C50" t="n">
-        <v>2.511078719180659e-06</v>
+        <v>-137.1760864257812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132862448692322</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128734827041626</v>
       </c>
       <c r="F50" t="n">
-        <v>6.96212282491615e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G50" t="n">
-        <v>2.231280404885183e-07</v>
+        <v>1403842.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001406276860507205</v>
+        <v>93.334716796875</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0001397885062033311</v>
+        <v>73.54602813720703</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0002488669124431908</v>
+        <v>189.2109375</v>
       </c>
       <c r="K50" t="n">
-        <v>2.231280404885183e-07</v>
+        <v>1403842.5</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.668965232681785e-08</v>
+        <v>-144.1907196044922</v>
       </c>
       <c r="C51" t="n">
-        <v>2.485596041879035e-06</v>
+        <v>-140.0141448974609</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3549742698669434</v>
+        <v>0.3132839202880859</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3541360795497894</v>
+        <v>0.3128734827041626</v>
       </c>
       <c r="F51" t="n">
-        <v>6.962122256481962e-07</v>
+        <v>2026000128</v>
       </c>
       <c r="G51" t="n">
-        <v>2.231278699582617e-07</v>
+        <v>1403842.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001406220835633576</v>
+        <v>93.33405303955078</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0001397830783389509</v>
+        <v>73.54532623291016</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0002488614991307259</v>
+        <v>189.2108001708984</v>
       </c>
       <c r="K51" t="n">
-        <v>2.231278699582617e-07</v>
+        <v>1403842.5</v>
       </c>
     </row>
   </sheetData>
